--- a/ROBO_ML/Dataset_log.xlsx
+++ b/ROBO_ML/Dataset_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umroot\Desktop\Surya_WS\ROBOML\ROBO_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077781F8-79AF-4480-BCD1-7B3E2470A048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD24CC9-B532-48A7-A856-78D1952381B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D2DF258-D6C8-47EE-B8BC-54B4F4A117DB}"/>
   </bookViews>
@@ -94,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +440,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +475,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">

--- a/ROBO_ML/Dataset_log.xlsx
+++ b/ROBO_ML/Dataset_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umroot\Desktop\Surya_WS\ROBOML\ROBO_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD24CC9-B532-48A7-A856-78D1952381B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2FDA8A-DFDB-499F-8FD1-A12E310E86B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D2DF258-D6C8-47EE-B8BC-54B4F4A117DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8D2DF258-D6C8-47EE-B8BC-54B4F4A117DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Dataset No</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>vicon</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>qvs</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +116,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,9 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F38D0E-8B43-4C32-8F64-358A740DE198}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +474,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +499,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -496,8 +525,14 @@
       <c r="G2">
         <v>1.131</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>5401</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,8 +554,11 @@
       <c r="G3">
         <v>1.131</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -542,8 +580,11 @@
       <c r="G4">
         <v>1.131</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -565,8 +606,11 @@
       <c r="G5">
         <v>1.131</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -589,7 +633,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -612,7 +656,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -635,7 +679,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -658,7 +702,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -681,7 +725,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -704,7 +748,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -727,7 +771,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -750,7 +794,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -773,7 +817,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -796,7 +840,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
